--- a/data/NHTS/Tennessee_100.xlsx
+++ b/data/NHTS/Tennessee_100.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="151" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Activity" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
@@ -107,6 +107,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
